--- a/Spreadsheet/cartpole.xlsx
+++ b/Spreadsheet/cartpole.xlsx
@@ -424,28 +424,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>21.1</c:v>
+                  <c:v>18.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.0</c:v>
+                  <c:v>24.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.6</c:v>
+                  <c:v>28.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.8</c:v>
+                  <c:v>49.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189.5</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.9</c:v>
+                  <c:v>114.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200.0</c:v>
+                  <c:v>159.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>185.3</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>200.0</c:v>
@@ -454,25 +454,25 @@
                   <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200.0</c:v>
+                  <c:v>196.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200.0</c:v>
+                  <c:v>162.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200.0</c:v>
+                  <c:v>146.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200.0</c:v>
+                  <c:v>183.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200.0</c:v>
+                  <c:v>133.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200.0</c:v>
+                  <c:v>109.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>200.0</c:v>
+                  <c:v>154.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>200.0</c:v>
@@ -3403,7 +3403,7 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B51"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C3">
         <v>22</v>
@@ -3509,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>24.9</v>
       </c>
       <c r="C4">
         <v>21.2</v>
@@ -3553,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47.6</v>
+        <v>28.7</v>
       </c>
       <c r="C5">
         <v>31.6</v>
@@ -3597,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>85.8</v>
+        <v>49.8</v>
       </c>
       <c r="C6">
         <v>22.1</v>
@@ -3641,7 +3641,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>189.5</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>27.8</v>
@@ -3685,7 +3685,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>187.9</v>
+        <v>114.7</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -3729,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>200</v>
+        <v>159.9</v>
       </c>
       <c r="C9">
         <v>36</v>
@@ -3773,7 +3773,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>185.3</v>
+        <v>176</v>
       </c>
       <c r="C10">
         <v>29.6</v>
@@ -3905,7 +3905,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>196.9</v>
       </c>
       <c r="C13">
         <v>35.9</v>
@@ -3949,7 +3949,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>162.6</v>
       </c>
       <c r="C14">
         <v>26.1</v>
@@ -3993,7 +3993,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>200</v>
+        <v>146.6</v>
       </c>
       <c r="C15">
         <v>27.2</v>
@@ -4037,7 +4037,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C16">
         <v>62.6</v>
@@ -4081,7 +4081,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>200</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="C17">
         <v>58.6</v>
@@ -4121,7 +4121,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>200</v>
+        <v>109.3</v>
       </c>
       <c r="C18">
         <v>56.8</v>
@@ -4161,7 +4161,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>200</v>
+        <v>154.6</v>
       </c>
       <c r="C19">
         <v>45.4</v>

--- a/Spreadsheet/cartpole.xlsx
+++ b/Spreadsheet/cartpole.xlsx
@@ -59,9 +59,6 @@
     <t>Episode</t>
   </si>
   <si>
-    <t>8,4 e new b</t>
-  </si>
-  <si>
     <t>8,4 e,b,m</t>
   </si>
   <si>
@@ -80,7 +77,10 @@
     <t>a=0.0001</t>
   </si>
   <si>
-    <t>BEST</t>
+    <t>target</t>
+  </si>
+  <si>
+    <t>agent reward</t>
   </si>
 </sst>
 </file>
@@ -175,12 +175,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Average</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Reward for REINFORCE Agent Playing Cartpole</a:t>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> Reward for REINFORCE Agent in Cartpole</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -188,10 +188,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>a=0.001, g=0.98, batch size=10, </a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>𝛼=0.1, 𝛾=0.98, batch size=5</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -235,7 +239,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>REINFORCE</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>agent reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -575,6 +587,347 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>195.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -583,11 +936,1078 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-246579008"/>
-        <c:axId val="-246591552"/>
+        <c:axId val="-1659481904"/>
+        <c:axId val="-1659479632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-246579008"/>
+        <c:axId val="-1659481904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Episode</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> (in 10s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1659479632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1659479632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Average Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1659481904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reinforce</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Agent playing Cartpole with varying alpha</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=0.0025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$55:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>107.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>177.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>197.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>183.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>190.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$55:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>127.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>196.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>186.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=0.025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$55:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$55:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$55:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$55:$E$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1659438048"/>
+        <c:axId val="-1659433776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1659438048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,11 +2048,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Episode</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (in 10s)</a:t>
+                  <a:t>Episode (in 100s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -703,12 +2119,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-246591552"/>
+        <c:crossAx val="-1659433776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-246591552"/>
+        <c:axId val="-1659433776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +2236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-246579008"/>
+        <c:crossAx val="-1659438048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -835,1065 +2251,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Reinforce</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Agent playing Cartpole with varying alpha</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a=0.0025</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$55:$A$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$55:$B$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>90.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>107.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>133.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>180.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>177.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>166.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>197.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>183.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>190.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a=0.01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$55:$A$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>72.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>127.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>174.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>175.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>170.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>125.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>161.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>158.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>166.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>190.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>196.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>186.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a=0.025</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$55:$A$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$55:$D$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$55:$A$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$55:$E$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-182879968"/>
-        <c:axId val="-182976496"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-182879968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Episode (in 100s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-182976496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-182976496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average Reward</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-182879968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3077,13 +3434,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4493</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>200776</xdr:rowOff>
+      <xdr:colOff>786031</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>20482</xdr:colOff>
+      <xdr:colOff>802020</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>40969</xdr:rowOff>
     </xdr:to>
@@ -3402,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3430,16 +3787,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
         <v>0</v>
@@ -3471,7 +3828,7 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>18.3</v>
+        <v>195</v>
       </c>
       <c r="E3">
         <v>28.6</v>
@@ -3492,7 +3849,7 @@
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>17.256521739130434</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
@@ -3515,7 +3872,7 @@
         <v>21.2</v>
       </c>
       <c r="D4">
-        <v>20.100000000000001</v>
+        <v>195</v>
       </c>
       <c r="E4">
         <v>16.5</v>
@@ -3527,7 +3884,7 @@
         <v>20.7</v>
       </c>
       <c r="T4">
-        <f>ABS(C4-C3)</f>
+        <f t="shared" ref="T4:T51" si="1">ABS(C4-C3)</f>
         <v>0.80000000000000071</v>
       </c>
       <c r="U4" t="e">
@@ -3536,7 +3893,7 @@
       </c>
       <c r="V4">
         <f>ABS(D4-D3)</f>
-        <v>1.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <f>ABS(E4-E3)</f>
@@ -3549,7 +3906,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A51" si="1">A4+1</f>
+        <f t="shared" ref="A5:A51" si="2">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5">
@@ -3559,7 +3916,7 @@
         <v>31.6</v>
       </c>
       <c r="D5">
-        <v>15.5</v>
+        <v>195</v>
       </c>
       <c r="E5">
         <v>27.9</v>
@@ -3571,7 +3928,7 @@
         <v>51.5</v>
       </c>
       <c r="T5">
-        <f>ABS(C5-C4)</f>
+        <f t="shared" si="1"/>
         <v>10.400000000000002</v>
       </c>
       <c r="U5" t="e">
@@ -3579,11 +3936,11 @@
         <v>#REF!</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="T5:V25" si="2">ABS(D5-D4)</f>
-        <v>4.6000000000000014</v>
+        <f t="shared" ref="V5:V25" si="3">ABS(D5-D4)</f>
+        <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:X51" si="3">ABS(E5-E4)</f>
+        <f t="shared" ref="W5:X51" si="4">ABS(E5-E4)</f>
         <v>11.399999999999999</v>
       </c>
       <c r="X5" t="e">
@@ -3593,7 +3950,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -3603,7 +3960,7 @@
         <v>22.1</v>
       </c>
       <c r="D6">
-        <v>38.799999999999997</v>
+        <v>195</v>
       </c>
       <c r="E6">
         <v>27.1</v>
@@ -3615,7 +3972,7 @@
         <v>66.2</v>
       </c>
       <c r="T6">
-        <f>ABS(C6-C5)</f>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="U6" t="e">
@@ -3623,11 +3980,11 @@
         <v>#REF!</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
-        <v>23.299999999999997</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79999999999999716</v>
       </c>
       <c r="X6" t="e">
@@ -3637,7 +3994,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -3647,7 +4004,7 @@
         <v>27.8</v>
       </c>
       <c r="D7">
-        <v>34.9</v>
+        <v>195</v>
       </c>
       <c r="E7">
         <v>20.9</v>
@@ -3659,7 +4016,7 @@
         <v>165.4</v>
       </c>
       <c r="T7">
-        <f>ABS(C7-C6)</f>
+        <f t="shared" si="1"/>
         <v>5.6999999999999993</v>
       </c>
       <c r="U7" t="e">
@@ -3667,11 +4024,11 @@
         <v>#REF!</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
-        <v>3.8999999999999986</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="X7" t="e">
@@ -3681,7 +4038,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -3691,7 +4048,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>109.9</v>
+        <v>195</v>
       </c>
       <c r="E8">
         <v>23.5</v>
@@ -3703,7 +4060,7 @@
         <v>175.7</v>
       </c>
       <c r="T8">
-        <f>ABS(C8-C7)</f>
+        <f t="shared" si="1"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="U8" t="e">
@@ -3711,11 +4068,11 @@
         <v>#REF!</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6000000000000014</v>
       </c>
       <c r="X8" t="e">
@@ -3725,7 +4082,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -3735,7 +4092,7 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>191.2</v>
+        <v>195</v>
       </c>
       <c r="E9">
         <v>30.1</v>
@@ -3747,7 +4104,7 @@
         <v>183.4</v>
       </c>
       <c r="T9">
-        <f>ABS(C9-C8)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="U9" t="e">
@@ -3755,11 +4112,11 @@
         <v>#REF!</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
-        <v>81.299999999999983</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6000000000000014</v>
       </c>
       <c r="X9" t="e">
@@ -3769,7 +4126,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -3779,7 +4136,7 @@
         <v>29.6</v>
       </c>
       <c r="D10">
-        <v>183.5</v>
+        <v>195</v>
       </c>
       <c r="E10">
         <v>30.2</v>
@@ -3791,7 +4148,7 @@
         <v>73.7</v>
       </c>
       <c r="T10">
-        <f>ABS(C10-C9)</f>
+        <f t="shared" si="1"/>
         <v>6.3999999999999986</v>
       </c>
       <c r="U10" t="e">
@@ -3799,11 +4156,11 @@
         <v>#REF!</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
-        <v>7.6999999999999886</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9999999999997868E-2</v>
       </c>
       <c r="X10" t="e">
@@ -3813,7 +4170,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -3823,7 +4180,7 @@
         <v>31.3</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E11">
         <v>29.6</v>
@@ -3835,7 +4192,7 @@
         <v>152.1</v>
       </c>
       <c r="T11">
-        <f>ABS(C11-C10)</f>
+        <f t="shared" si="1"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="U11" t="e">
@@ -3843,11 +4200,11 @@
         <v>#REF!</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
-        <v>16.5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.59999999999999787</v>
       </c>
       <c r="X11" t="e">
@@ -3857,7 +4214,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -3867,7 +4224,7 @@
         <v>24.8</v>
       </c>
       <c r="D12">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E12">
         <v>50.6</v>
@@ -3879,7 +4236,7 @@
         <v>200</v>
       </c>
       <c r="T12">
-        <f>ABS(C12-C11)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="U12" t="e">
@@ -3887,11 +4244,11 @@
         <v>#REF!</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="X12" t="e">
@@ -3901,7 +4258,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -3911,7 +4268,7 @@
         <v>35.9</v>
       </c>
       <c r="D13">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E13">
         <v>57.5</v>
@@ -3923,7 +4280,7 @@
         <v>186.2</v>
       </c>
       <c r="T13">
-        <f>ABS(C13-C12)</f>
+        <f t="shared" si="1"/>
         <v>11.099999999999998</v>
       </c>
       <c r="U13" t="e">
@@ -3931,11 +4288,11 @@
         <v>#REF!</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8999999999999986</v>
       </c>
       <c r="X13" t="e">
@@ -3945,7 +4302,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -3955,7 +4312,7 @@
         <v>26.1</v>
       </c>
       <c r="D14">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E14">
         <v>55.2</v>
@@ -3967,7 +4324,7 @@
         <v>180.7</v>
       </c>
       <c r="T14">
-        <f>ABS(C14-C13)</f>
+        <f t="shared" si="1"/>
         <v>9.7999999999999972</v>
       </c>
       <c r="U14" t="e">
@@ -3975,11 +4332,11 @@
         <v>#REF!</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2999999999999972</v>
       </c>
       <c r="X14" t="e">
@@ -3989,7 +4346,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B15">
@@ -3999,7 +4356,7 @@
         <v>27.2</v>
       </c>
       <c r="D15">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E15">
         <v>49.1</v>
@@ -4011,7 +4368,7 @@
         <v>200</v>
       </c>
       <c r="T15">
-        <f>ABS(C15-C14)</f>
+        <f t="shared" si="1"/>
         <v>1.0999999999999979</v>
       </c>
       <c r="U15" t="e">
@@ -4019,11 +4376,11 @@
         <v>#REF!</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1000000000000014</v>
       </c>
       <c r="X15" t="e">
@@ -4033,7 +4390,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B16">
@@ -4043,7 +4400,7 @@
         <v>62.6</v>
       </c>
       <c r="D16">
-        <v>192.5</v>
+        <v>195</v>
       </c>
       <c r="E16">
         <v>90.2</v>
@@ -4055,7 +4412,7 @@
         <v>188.5</v>
       </c>
       <c r="T16">
-        <f>ABS(C16-C15)</f>
+        <f t="shared" si="1"/>
         <v>35.400000000000006</v>
       </c>
       <c r="U16" t="e">
@@ -4063,11 +4420,11 @@
         <v>#REF!</v>
       </c>
       <c r="V16">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41.1</v>
       </c>
       <c r="X16" t="e">
@@ -4077,7 +4434,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B17">
@@ -4087,7 +4444,7 @@
         <v>58.6</v>
       </c>
       <c r="D17">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E17">
         <v>107.7</v>
@@ -4099,15 +4456,15 @@
         <v>200</v>
       </c>
       <c r="T17">
-        <f>ABS(C17-C16)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V17">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
       <c r="X17" t="e">
@@ -4117,7 +4474,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B18">
@@ -4127,7 +4484,7 @@
         <v>56.8</v>
       </c>
       <c r="D18">
-        <v>193.8</v>
+        <v>195</v>
       </c>
       <c r="E18">
         <v>133.6</v>
@@ -4139,15 +4496,15 @@
         <v>200</v>
       </c>
       <c r="T18">
-        <f>ABS(C18-C17)</f>
+        <f t="shared" si="1"/>
         <v>1.8000000000000043</v>
       </c>
       <c r="V18">
-        <f t="shared" si="2"/>
-        <v>6.1999999999999886</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.899999999999991</v>
       </c>
       <c r="X18" t="e">
@@ -4157,7 +4514,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B19">
@@ -4167,7 +4524,7 @@
         <v>45.4</v>
       </c>
       <c r="D19">
-        <v>186.9</v>
+        <v>195</v>
       </c>
       <c r="E19">
         <v>180.3</v>
@@ -4179,15 +4536,15 @@
         <v>199.8</v>
       </c>
       <c r="T19">
-        <f>ABS(C19-C18)</f>
+        <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
       <c r="V19">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000057</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.700000000000017</v>
       </c>
       <c r="X19" t="e">
@@ -4197,7 +4554,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B20">
@@ -4207,7 +4564,7 @@
         <v>82.8</v>
       </c>
       <c r="D20">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E20">
         <v>177.9</v>
@@ -4219,15 +4576,15 @@
         <v>200</v>
       </c>
       <c r="T20">
-        <f>ABS(C20-C19)</f>
+        <f t="shared" si="1"/>
         <v>37.4</v>
       </c>
       <c r="V20">
-        <f t="shared" si="2"/>
-        <v>5.0999999999999943</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4000000000000057</v>
       </c>
       <c r="X20" t="e">
@@ -4237,7 +4594,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B21">
@@ -4247,7 +4604,7 @@
         <v>88.5</v>
       </c>
       <c r="D21">
-        <v>187.7</v>
+        <v>195</v>
       </c>
       <c r="E21">
         <v>166.6</v>
@@ -4259,15 +4616,15 @@
         <v>200</v>
       </c>
       <c r="T21">
-        <f>ABS(C21-C20)</f>
+        <f t="shared" si="1"/>
         <v>5.7000000000000028</v>
       </c>
       <c r="V21">
-        <f t="shared" si="2"/>
-        <v>4.3000000000000114</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.300000000000011</v>
       </c>
       <c r="X21" t="e">
@@ -4277,7 +4634,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B22">
@@ -4287,7 +4644,7 @@
         <v>95.6</v>
       </c>
       <c r="D22">
-        <v>121.2</v>
+        <v>195</v>
       </c>
       <c r="E22">
         <v>197.9</v>
@@ -4299,15 +4656,15 @@
         <v>116.7</v>
       </c>
       <c r="T22">
-        <f>ABS(C22-C21)</f>
+        <f t="shared" si="1"/>
         <v>7.0999999999999943</v>
       </c>
       <c r="V22">
-        <f t="shared" si="2"/>
-        <v>66.499999999999986</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31.300000000000011</v>
       </c>
       <c r="X22" t="e">
@@ -4317,7 +4674,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B23">
@@ -4327,7 +4684,7 @@
         <v>166.3</v>
       </c>
       <c r="D23">
-        <v>176.9</v>
+        <v>195</v>
       </c>
       <c r="E23">
         <v>183.6</v>
@@ -4339,15 +4696,15 @@
         <v>76.599999999999994</v>
       </c>
       <c r="T23">
-        <f>ABS(C23-C22)</f>
+        <f t="shared" si="1"/>
         <v>70.700000000000017</v>
       </c>
       <c r="V23">
-        <f t="shared" si="2"/>
-        <v>55.7</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.300000000000011</v>
       </c>
       <c r="X23" t="e">
@@ -4357,7 +4714,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B24">
@@ -4367,7 +4724,7 @@
         <v>144.5</v>
       </c>
       <c r="D24">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E24">
         <v>190.8</v>
@@ -4379,15 +4736,15 @@
         <v>127.8</v>
       </c>
       <c r="T24">
-        <f>ABS(C24-C23)</f>
+        <f t="shared" si="1"/>
         <v>21.800000000000011</v>
       </c>
       <c r="V24">
-        <f t="shared" si="2"/>
-        <v>23.099999999999994</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2000000000000171</v>
       </c>
       <c r="X24" t="e">
@@ -4397,7 +4754,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B25">
@@ -4407,7 +4764,7 @@
         <v>199.2</v>
       </c>
       <c r="D25">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E25">
         <v>200</v>
@@ -4419,15 +4776,15 @@
         <v>158.6</v>
       </c>
       <c r="T25">
-        <f>ABS(C25-C24)</f>
+        <f t="shared" si="1"/>
         <v>54.699999999999989</v>
       </c>
       <c r="V25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1999999999999886</v>
       </c>
       <c r="X25" t="e">
@@ -4437,7 +4794,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B26">
@@ -4447,7 +4804,7 @@
         <v>173.6</v>
       </c>
       <c r="D26">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -4459,15 +4816,15 @@
         <v>126.8</v>
       </c>
       <c r="T26">
-        <f>ABS(C26-C25)</f>
+        <f t="shared" si="1"/>
         <v>25.599999999999994</v>
       </c>
       <c r="V26">
-        <f t="shared" ref="V26" si="4">ABS(D26-D25)</f>
+        <f t="shared" ref="V26" si="5">ABS(D26-D25)</f>
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X26" t="e">
@@ -4477,7 +4834,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B27">
@@ -4486,15 +4843,18 @@
       <c r="C27">
         <v>187.9</v>
       </c>
+      <c r="D27">
+        <v>195</v>
+      </c>
       <c r="G27">
         <v>124.2</v>
       </c>
       <c r="T27">
-        <f>ABS(C27-C26)</f>
+        <f t="shared" si="1"/>
         <v>14.300000000000011</v>
       </c>
       <c r="W27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="X27" t="e">
@@ -4504,7 +4864,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B28">
@@ -4512,26 +4872,29 @@
       </c>
       <c r="C28">
         <v>200</v>
+      </c>
+      <c r="D28">
+        <v>195</v>
       </c>
       <c r="G28">
         <v>159.5</v>
       </c>
       <c r="T28">
-        <f>ABS(C28-C27)</f>
+        <f t="shared" si="1"/>
         <v>12.099999999999994</v>
       </c>
       <c r="W28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B29">
@@ -4540,25 +4903,28 @@
       <c r="C29">
         <v>176.6</v>
       </c>
+      <c r="D29">
+        <v>195</v>
+      </c>
       <c r="G29">
         <v>156.80000000000001</v>
       </c>
       <c r="T29">
-        <f>ABS(C29-C28)</f>
+        <f t="shared" si="1"/>
         <v>23.400000000000006</v>
       </c>
       <c r="W29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B30">
@@ -4567,25 +4933,28 @@
       <c r="C30">
         <v>184.4</v>
       </c>
+      <c r="D30">
+        <v>195</v>
+      </c>
       <c r="G30">
         <v>200</v>
       </c>
       <c r="T30">
-        <f>ABS(C30-C29)</f>
+        <f t="shared" si="1"/>
         <v>7.8000000000000114</v>
       </c>
       <c r="W30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B31">
@@ -4594,25 +4963,28 @@
       <c r="C31">
         <v>198.5</v>
       </c>
+      <c r="D31">
+        <v>195</v>
+      </c>
       <c r="G31">
         <v>200</v>
       </c>
       <c r="T31">
-        <f>ABS(C31-C30)</f>
+        <f t="shared" si="1"/>
         <v>14.099999999999994</v>
       </c>
       <c r="W31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B32">
@@ -4621,25 +4993,28 @@
       <c r="C32">
         <v>199.6</v>
       </c>
+      <c r="D32">
+        <v>195</v>
+      </c>
       <c r="G32">
         <v>200</v>
       </c>
       <c r="T32">
-        <f>ABS(C32-C31)</f>
+        <f t="shared" si="1"/>
         <v>1.0999999999999943</v>
       </c>
       <c r="W32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B33">
@@ -4648,25 +5023,28 @@
       <c r="C33">
         <v>196.6</v>
       </c>
+      <c r="D33">
+        <v>195</v>
+      </c>
       <c r="G33">
         <v>200</v>
       </c>
       <c r="T33">
-        <f>ABS(C33-C32)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="W33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B34">
@@ -4675,25 +5053,28 @@
       <c r="C34">
         <v>189.6</v>
       </c>
+      <c r="D34">
+        <v>195</v>
+      </c>
       <c r="G34">
         <v>200</v>
       </c>
       <c r="T34">
-        <f>ABS(C34-C33)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="W34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B35">
@@ -4702,25 +5083,28 @@
       <c r="C35">
         <v>187.5</v>
       </c>
+      <c r="D35">
+        <v>195</v>
+      </c>
       <c r="G35">
         <v>200</v>
       </c>
       <c r="T35">
-        <f>ABS(C35-C34)</f>
+        <f t="shared" si="1"/>
         <v>2.0999999999999943</v>
       </c>
       <c r="W35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B36">
@@ -4729,25 +5113,28 @@
       <c r="C36">
         <v>197.1</v>
       </c>
+      <c r="D36">
+        <v>195</v>
+      </c>
       <c r="G36">
         <v>200</v>
       </c>
       <c r="T36">
-        <f>ABS(C36-C35)</f>
+        <f t="shared" si="1"/>
         <v>9.5999999999999943</v>
       </c>
       <c r="W36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B37">
@@ -4756,25 +5143,28 @@
       <c r="C37">
         <v>199.3</v>
       </c>
+      <c r="D37">
+        <v>195</v>
+      </c>
       <c r="G37">
         <v>200</v>
       </c>
       <c r="T37">
-        <f>ABS(C37-C36)</f>
+        <f t="shared" si="1"/>
         <v>2.2000000000000171</v>
       </c>
       <c r="W37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B38">
@@ -4783,25 +5173,28 @@
       <c r="C38">
         <v>197.8</v>
       </c>
+      <c r="D38">
+        <v>195</v>
+      </c>
       <c r="G38">
         <v>200</v>
       </c>
       <c r="T38">
-        <f>ABS(C38-C37)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="W38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B39">
@@ -4810,151 +5203,169 @@
       <c r="C39">
         <v>185</v>
       </c>
+      <c r="D39">
+        <v>195</v>
+      </c>
       <c r="G39">
         <v>199.6</v>
       </c>
       <c r="T39">
-        <f>ABS(C39-C38)</f>
+        <f t="shared" si="1"/>
         <v>12.800000000000011</v>
       </c>
       <c r="W39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+      <c r="D40">
+        <v>195</v>
+      </c>
+      <c r="G40">
+        <v>200</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>200</v>
-      </c>
-      <c r="C40">
-        <v>200</v>
-      </c>
-      <c r="G40">
-        <v>200</v>
-      </c>
-      <c r="T40">
-        <f>ABS(C40-C39)</f>
         <v>15</v>
       </c>
       <c r="W40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="D41">
+        <v>195</v>
+      </c>
+      <c r="G41">
+        <v>200</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>200</v>
-      </c>
-      <c r="C41">
-        <v>200</v>
-      </c>
-      <c r="G41">
-        <v>200</v>
-      </c>
-      <c r="T41">
-        <f>ABS(C41-C40)</f>
         <v>0</v>
       </c>
       <c r="W41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+      <c r="D42">
+        <v>195</v>
+      </c>
+      <c r="T42">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>200</v>
-      </c>
-      <c r="C42">
-        <v>200</v>
-      </c>
-      <c r="T42">
-        <f>ABS(C42-C41)</f>
         <v>0</v>
       </c>
       <c r="W42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="D43">
+        <v>195</v>
+      </c>
+      <c r="T43">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>200</v>
-      </c>
-      <c r="C43">
-        <v>200</v>
-      </c>
-      <c r="T43">
-        <f>ABS(C43-C42)</f>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+      <c r="D44">
+        <v>195</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>200</v>
-      </c>
-      <c r="C44">
-        <v>200</v>
-      </c>
-      <c r="T44">
-        <f>ABS(C44-C43)</f>
         <v>0</v>
       </c>
       <c r="W44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B45">
@@ -4963,22 +5374,25 @@
       <c r="C45">
         <v>198.8</v>
       </c>
+      <c r="D45">
+        <v>195</v>
+      </c>
       <c r="T45">
-        <f>ABS(C45-C44)</f>
+        <f t="shared" si="1"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="W45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B46">
@@ -4987,22 +5401,25 @@
       <c r="C46">
         <v>196.5</v>
       </c>
+      <c r="D46">
+        <v>195</v>
+      </c>
       <c r="T46">
-        <f>ABS(C46-C45)</f>
+        <f t="shared" si="1"/>
         <v>2.3000000000000114</v>
       </c>
       <c r="W46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B47">
@@ -5011,22 +5428,25 @@
       <c r="C47">
         <v>184.4</v>
       </c>
+      <c r="D47">
+        <v>195</v>
+      </c>
       <c r="T47">
-        <f>ABS(C47-C46)</f>
+        <f t="shared" si="1"/>
         <v>12.099999999999994</v>
       </c>
       <c r="W47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B48">
@@ -5035,22 +5455,25 @@
       <c r="C48">
         <v>189.3</v>
       </c>
+      <c r="D48">
+        <v>195</v>
+      </c>
       <c r="T48">
-        <f>ABS(C48-C47)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000057</v>
       </c>
       <c r="W48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B49">
@@ -5059,46 +5482,52 @@
       <c r="C49">
         <v>199.3</v>
       </c>
+      <c r="D49">
+        <v>195</v>
+      </c>
       <c r="T49">
-        <f>ABS(C49-C48)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="W49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+      <c r="C50">
+        <v>200</v>
+      </c>
+      <c r="D50">
+        <v>195</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>200</v>
-      </c>
-      <c r="C50">
-        <v>200</v>
-      </c>
-      <c r="T50">
-        <f>ABS(C50-C49)</f>
         <v>0.69999999999998863</v>
       </c>
       <c r="W50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B51">
@@ -5107,16 +5536,19 @@
       <c r="C51">
         <v>195.9</v>
       </c>
+      <c r="D51">
+        <v>195</v>
+      </c>
       <c r="T51">
-        <f>ABS(C51-C50)</f>
+        <f t="shared" si="1"/>
         <v>4.0999999999999943</v>
       </c>
       <c r="W51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5126,10 +5558,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
         <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -5137,13 +5569,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
@@ -5171,7 +5603,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" ref="A57:A103" si="5">A56+1</f>
+        <f t="shared" ref="A57:A103" si="6">A56+1</f>
         <v>3</v>
       </c>
       <c r="B57">
@@ -5183,7 +5615,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B58">
@@ -5195,7 +5627,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B59">
@@ -5207,7 +5639,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B60">
@@ -5219,7 +5651,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B61">
@@ -5231,7 +5663,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B62">
@@ -5243,7 +5675,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B63">
@@ -5255,7 +5687,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B64">
@@ -5267,7 +5699,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B65">
@@ -5279,7 +5711,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B66">
@@ -5291,7 +5723,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B67">
@@ -5303,7 +5735,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B68">
@@ -5315,7 +5747,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B69">
@@ -5327,7 +5759,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B70">
@@ -5339,7 +5771,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B71">
@@ -5351,7 +5783,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B72">
@@ -5363,7 +5795,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B73">
@@ -5375,7 +5807,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B74">
@@ -5387,7 +5819,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B75">
@@ -5399,7 +5831,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B76">
@@ -5411,7 +5843,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B77">
@@ -5423,7 +5855,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B78">
@@ -5435,151 +5867,151 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>

--- a/Spreadsheet/cartpole.xlsx
+++ b/Spreadsheet/cartpole.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelprobst/Desktop/UK_FALL_2020/CS660/3_a/Spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UK2020\CS660\3_A\policy-gradients\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAB5F65-9300-482B-8948-38AD814EB280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -86,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -137,12 +147,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -188,18 +201,17 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2000" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>𝛼=0.1, 𝛾=0.98, batch size=5</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1600">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -280,151 +292,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -436,7 +448,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>18.1</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24.9</c:v>
@@ -448,7 +460,7 @@
                   <c:v>49.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>114.7</c:v>
@@ -457,13 +469,13 @@
                   <c:v>159.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176.0</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>196.9</c:v>
@@ -475,10 +487,10 @@
                   <c:v>146.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>183.0</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>133.3</c:v>
+                  <c:v>133.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>109.3</c:v>
@@ -487,105 +499,110 @@
                   <c:v>154.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F93-4F1A-8BA3-366F0E9A6584}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -621,151 +638,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,156 +794,161 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>195.0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F93-4F1A-8BA3-366F0E9A6584}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -943,6 +965,7 @@
         <c:axId val="-1659481904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -967,7 +990,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -980,17 +1003,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Episode</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
                   <a:t> (in 10s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1004,7 +1026,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1020,6 +1042,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1088,7 +1111,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1101,13 +1124,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Average Reward</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1121,7 +1143,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1137,6 +1159,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1187,7 +1210,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1255,7 +1277,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1298,7 +1320,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1379,76 +1400,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,15 +1547,20 @@
                   <c:v>190.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F65A-47EB-AFDA-007FFE1DB553}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1581,76 +1607,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,19 +1700,19 @@
                   <c:v>28.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.8</c:v>
+                  <c:v>37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.4</c:v>
+                  <c:v>72.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>100.7</c:v>
@@ -1701,7 +1727,7 @@
                   <c:v>175.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>170.7</c:v>
@@ -1719,7 +1745,7 @@
                   <c:v>166.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>190.2</c:v>
@@ -1731,12 +1757,17 @@
                   <c:v>186.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F65A-47EB-AFDA-007FFE1DB553}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1783,76 +1814,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,6 +1898,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F65A-47EB-AFDA-007FFE1DB553}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1910,76 +1946,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,6 +2030,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F65A-47EB-AFDA-007FFE1DB553}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2053,7 +2094,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2083,6 +2123,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2170,7 +2211,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2200,6 +2240,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2250,7 +2291,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3434,19 +3474,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>786031</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5391</xdr:rowOff>
+      <xdr:colOff>824131</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>195891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>802020</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>40969</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3476,7 +3522,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3756,19 +3808,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3776,7 +3828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3817,7 +3869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3860,7 +3912,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -3904,7 +3956,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A51" si="2">A4+1</f>
         <v>3</v>
@@ -3948,7 +4000,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -3992,7 +4044,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -4036,7 +4088,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4080,7 +4132,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4124,7 +4176,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4168,7 +4220,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4212,7 +4264,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -4256,7 +4308,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -4300,7 +4352,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -4344,7 +4396,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -4388,7 +4440,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4432,7 +4484,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4472,7 +4524,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -4512,7 +4564,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -4552,7 +4604,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4592,7 +4644,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4632,7 +4684,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -4672,7 +4724,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -4712,7 +4764,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -4752,7 +4804,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -4792,7 +4844,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -4832,7 +4884,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -4862,7 +4914,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -4892,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -4922,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -4952,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -4982,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -5012,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -5042,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -5072,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -5102,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -5132,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -5162,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -5192,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -5222,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -5252,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -5282,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -5309,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -5336,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -5363,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -5390,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -5417,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -5444,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -5471,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -5498,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -5525,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -5552,8 +5604,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -5564,7 +5616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -5578,7 +5630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5589,7 +5641,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>A55+1</f>
         <v>2</v>
@@ -5601,7 +5653,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ref="A57:A103" si="6">A56+1</f>
         <v>3</v>
@@ -5613,7 +5665,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -5625,7 +5677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -5637,7 +5689,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -5649,7 +5701,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -5661,7 +5713,7 @@
         <v>153.1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -5673,7 +5725,7 @@
         <v>183.6</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -5685,7 +5737,7 @@
         <v>192.3</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -5697,7 +5749,7 @@
         <v>183.9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -5709,7 +5761,7 @@
         <v>136.19999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -5721,7 +5773,7 @@
         <v>165.3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -5733,7 +5785,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -5745,7 +5797,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -5757,7 +5809,7 @@
         <v>185.2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -5769,7 +5821,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -5781,7 +5833,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -5793,7 +5845,7 @@
         <v>146.19999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -5805,7 +5857,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -5817,7 +5869,7 @@
         <v>181.9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -5829,7 +5881,7 @@
         <v>184.2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -5841,7 +5893,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="6"/>
         <v>23</v>
@@ -5853,7 +5905,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -5865,151 +5917,151 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="6"/>
         <v>49</v>
